--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Mmp12</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.91272240262984</v>
+        <v>9.573241999999999</v>
       </c>
       <c r="H2">
-        <v>6.91272240262984</v>
+        <v>28.719726</v>
       </c>
       <c r="I2">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="J2">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N2">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O2">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P2">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q2">
-        <v>98.16622163368974</v>
+        <v>138.273748681929</v>
       </c>
       <c r="R2">
-        <v>98.16622163368974</v>
+        <v>829.6424920915739</v>
       </c>
       <c r="S2">
-        <v>0.04109891411744652</v>
+        <v>0.04483036655195387</v>
       </c>
       <c r="T2">
-        <v>0.04109891411744652</v>
+        <v>0.03149641411054152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.91272240262984</v>
+        <v>9.573241999999999</v>
       </c>
       <c r="H3">
-        <v>6.91272240262984</v>
+        <v>28.719726</v>
       </c>
       <c r="I3">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="J3">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N3">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O3">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P3">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q3">
-        <v>42.3119513576074</v>
+        <v>64.35864029872666</v>
       </c>
       <c r="R3">
-        <v>42.3119513576074</v>
+        <v>579.2277626885399</v>
       </c>
       <c r="S3">
-        <v>0.01771459903465492</v>
+        <v>0.02086601009143203</v>
       </c>
       <c r="T3">
-        <v>0.01771459903465492</v>
+        <v>0.021989709606083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.91272240262984</v>
+        <v>9.573241999999999</v>
       </c>
       <c r="H4">
-        <v>6.91272240262984</v>
+        <v>28.719726</v>
       </c>
       <c r="I4">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="J4">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N4">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O4">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P4">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q4">
-        <v>302.9553577782718</v>
+        <v>443.6065375847047</v>
       </c>
       <c r="R4">
-        <v>302.9553577782718</v>
+        <v>3992.458838262342</v>
       </c>
       <c r="S4">
-        <v>0.1268372768508018</v>
+        <v>0.1438237111117278</v>
       </c>
       <c r="T4">
-        <v>0.1268372768508018</v>
+        <v>0.1515690650947547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.91272240262984</v>
+        <v>9.573241999999999</v>
       </c>
       <c r="H5">
-        <v>6.91272240262984</v>
+        <v>28.719726</v>
       </c>
       <c r="I5">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="J5">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N5">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O5">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P5">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q5">
-        <v>370.1029404830416</v>
+        <v>521.2662147895859</v>
       </c>
       <c r="R5">
-        <v>370.1029404830416</v>
+        <v>4691.395933106273</v>
       </c>
       <c r="S5">
-        <v>0.1549497241758639</v>
+        <v>0.1690021114124947</v>
       </c>
       <c r="T5">
-        <v>0.1549497241758639</v>
+        <v>0.1781034005299187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.91272240262984</v>
+        <v>9.573241999999999</v>
       </c>
       <c r="H6">
-        <v>6.91272240262984</v>
+        <v>28.719726</v>
       </c>
       <c r="I6">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="J6">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N6">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O6">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P6">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q6">
-        <v>86.0858822727168</v>
+        <v>127.891974595714</v>
       </c>
       <c r="R6">
-        <v>86.0858822727168</v>
+        <v>1151.027771361426</v>
       </c>
       <c r="S6">
-        <v>0.03604128001842925</v>
+        <v>0.04146444393698812</v>
       </c>
       <c r="T6">
-        <v>0.03604128001842925</v>
+        <v>0.04369743315357048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.91272240262984</v>
+        <v>9.573241999999999</v>
       </c>
       <c r="H7">
-        <v>6.91272240262984</v>
+        <v>28.719726</v>
       </c>
       <c r="I7">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="J7">
-        <v>0.3975009838711296</v>
+        <v>0.443082330403876</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N7">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O7">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P7">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q7">
-        <v>49.82291821090378</v>
+        <v>71.23580525615399</v>
       </c>
       <c r="R7">
-        <v>49.82291821090378</v>
+        <v>427.414831536924</v>
       </c>
       <c r="S7">
-        <v>0.02085918967393318</v>
+        <v>0.02309568729927945</v>
       </c>
       <c r="T7">
-        <v>0.02085918967393318</v>
+        <v>0.01622630790900762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.4777311638221</v>
+        <v>11.980403</v>
       </c>
       <c r="H8">
-        <v>10.4777311638221</v>
+        <v>35.941209</v>
       </c>
       <c r="I8">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="J8">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N8">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O8">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P8">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q8">
-        <v>148.7922152428222</v>
+        <v>173.0422393511235</v>
       </c>
       <c r="R8">
-        <v>148.7922152428222</v>
+        <v>1038.253436106741</v>
       </c>
       <c r="S8">
-        <v>0.06229432460412317</v>
+        <v>0.05610281845273815</v>
       </c>
       <c r="T8">
-        <v>0.06229432460412317</v>
+        <v>0.0394160864312397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.4777311638221</v>
+        <v>11.980403</v>
       </c>
       <c r="H9">
-        <v>10.4777311638221</v>
+        <v>35.941209</v>
       </c>
       <c r="I9">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="J9">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N9">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O9">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P9">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q9">
-        <v>64.13294582364084</v>
+        <v>80.54141400695667</v>
       </c>
       <c r="R9">
-        <v>64.13294582364084</v>
+        <v>724.87272606261</v>
       </c>
       <c r="S9">
-        <v>0.02685031967859793</v>
+        <v>0.02611270141268993</v>
       </c>
       <c r="T9">
-        <v>0.02685031967859793</v>
+        <v>0.02751895156665272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.4777311638221</v>
+        <v>11.980403</v>
       </c>
       <c r="H10">
-        <v>10.4777311638221</v>
+        <v>35.941209</v>
       </c>
       <c r="I10">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="J10">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N10">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O10">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P10">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q10">
-        <v>459.1945992555212</v>
+        <v>555.1499788367838</v>
       </c>
       <c r="R10">
-        <v>459.1945992555212</v>
+        <v>4996.349809531053</v>
       </c>
       <c r="S10">
-        <v>0.1922494222953887</v>
+        <v>0.1799877220354482</v>
       </c>
       <c r="T10">
-        <v>0.1922494222953887</v>
+        <v>0.1896806204385509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.4777311638221</v>
+        <v>11.980403</v>
       </c>
       <c r="H11">
-        <v>10.4777311638221</v>
+        <v>35.941209</v>
       </c>
       <c r="I11">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="J11">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N11">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O11">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P11">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q11">
-        <v>560.9713348023487</v>
+        <v>652.336932824199</v>
       </c>
       <c r="R11">
-        <v>560.9713348023487</v>
+        <v>5871.032395417791</v>
       </c>
       <c r="S11">
-        <v>0.2348599378452465</v>
+        <v>0.2114971503459942</v>
       </c>
       <c r="T11">
-        <v>0.2348599378452465</v>
+        <v>0.2228869294246234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.4777311638221</v>
+        <v>11.980403</v>
       </c>
       <c r="H12">
-        <v>10.4777311638221</v>
+        <v>35.941209</v>
       </c>
       <c r="I12">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="J12">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N12">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O12">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P12">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q12">
-        <v>130.4818389800839</v>
+        <v>160.050001464751</v>
       </c>
       <c r="R12">
-        <v>130.4818389800839</v>
+        <v>1440.450013182759</v>
       </c>
       <c r="S12">
-        <v>0.0546283823995986</v>
+        <v>0.05189054539058184</v>
       </c>
       <c r="T12">
-        <v>0.0546283823995986</v>
+        <v>0.05468501258459101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.4777311638221</v>
+        <v>11.980403</v>
       </c>
       <c r="H13">
-        <v>10.4777311638221</v>
+        <v>35.941209</v>
       </c>
       <c r="I13">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="J13">
-        <v>0.6024990161288705</v>
+        <v>0.5544939614414415</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N13">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O13">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P13">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q13">
-        <v>75.51744629761892</v>
+        <v>89.14782003821101</v>
       </c>
       <c r="R13">
-        <v>75.51744629761892</v>
+        <v>534.886920229266</v>
       </c>
       <c r="S13">
-        <v>0.03161662930591558</v>
+        <v>0.02890302380398923</v>
       </c>
       <c r="T13">
-        <v>0.03161662930591558</v>
+        <v>0.02030636099578374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.05236666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.1571</v>
+      </c>
+      <c r="I14">
+        <v>0.002423708154682566</v>
+      </c>
+      <c r="J14">
+        <v>0.002423708154682567</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.4437745</v>
+      </c>
+      <c r="N14">
+        <v>28.887549</v>
+      </c>
+      <c r="O14">
+        <v>0.1011784119468053</v>
+      </c>
+      <c r="P14">
+        <v>0.07108478932534294</v>
+      </c>
+      <c r="Q14">
+        <v>0.75637232465</v>
+      </c>
+      <c r="R14">
+        <v>4.5382339479</v>
+      </c>
+      <c r="S14">
+        <v>0.0002452269421133041</v>
+      </c>
+      <c r="T14">
+        <v>0.000172288783561726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.05236666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.1571</v>
+      </c>
+      <c r="I15">
+        <v>0.002423708154682566</v>
+      </c>
+      <c r="J15">
+        <v>0.002423708154682567</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.722763333333333</v>
+      </c>
+      <c r="N15">
+        <v>20.16829</v>
+      </c>
+      <c r="O15">
+        <v>0.04709285083070759</v>
+      </c>
+      <c r="P15">
+        <v>0.04962894725691061</v>
+      </c>
+      <c r="Q15">
+        <v>0.3520487065555556</v>
+      </c>
+      <c r="R15">
+        <v>3.168438359</v>
+      </c>
+      <c r="S15">
+        <v>0.0001141393265856357</v>
+      </c>
+      <c r="T15">
+        <v>0.0001202860841748852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.05236666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.1571</v>
+      </c>
+      <c r="I16">
+        <v>0.002423708154682566</v>
+      </c>
+      <c r="J16">
+        <v>0.002423708154682567</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>46.33817233333334</v>
+      </c>
+      <c r="N16">
+        <v>139.014517</v>
+      </c>
+      <c r="O16">
+        <v>0.3245981643651428</v>
+      </c>
+      <c r="P16">
+        <v>0.342078784673262</v>
+      </c>
+      <c r="Q16">
+        <v>2.426575624522223</v>
+      </c>
+      <c r="R16">
+        <v>21.83918062070001</v>
+      </c>
+      <c r="S16">
+        <v>0.0007867312179667885</v>
+      </c>
+      <c r="T16">
+        <v>0.000829099139956487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.05236666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.1571</v>
+      </c>
+      <c r="I17">
+        <v>0.002423708154682566</v>
+      </c>
+      <c r="J17">
+        <v>0.002423708154682567</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>54.450333</v>
+      </c>
+      <c r="N17">
+        <v>163.350999</v>
+      </c>
+      <c r="O17">
+        <v>0.3814237215427815</v>
+      </c>
+      <c r="P17">
+        <v>0.4019645747723113</v>
+      </c>
+      <c r="Q17">
+        <v>2.8513824381</v>
+      </c>
+      <c r="R17">
+        <v>25.6624419429</v>
+      </c>
+      <c r="S17">
+        <v>0.0009244597842926121</v>
+      </c>
+      <c r="T17">
+        <v>0.0009742448177691613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.05236666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.1571</v>
+      </c>
+      <c r="I18">
+        <v>0.002423708154682566</v>
+      </c>
+      <c r="J18">
+        <v>0.002423708154682567</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.359317</v>
+      </c>
+      <c r="N18">
+        <v>40.077951</v>
+      </c>
+      <c r="O18">
+        <v>0.09358180430980555</v>
+      </c>
+      <c r="P18">
+        <v>0.09862147541234521</v>
+      </c>
+      <c r="Q18">
+        <v>0.6995829002333334</v>
+      </c>
+      <c r="R18">
+        <v>6.2962461021</v>
+      </c>
+      <c r="S18">
+        <v>0.0002268149822355838</v>
+      </c>
+      <c r="T18">
+        <v>0.0002390296741837274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.05236666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.1571</v>
+      </c>
+      <c r="I19">
+        <v>0.002423708154682566</v>
+      </c>
+      <c r="J19">
+        <v>0.002423708154682567</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.441137</v>
+      </c>
+      <c r="N19">
+        <v>14.882274</v>
+      </c>
+      <c r="O19">
+        <v>0.05212504700475732</v>
+      </c>
+      <c r="P19">
+        <v>0.03662142855982794</v>
+      </c>
+      <c r="Q19">
+        <v>0.3896675409000001</v>
+      </c>
+      <c r="R19">
+        <v>2.3380052454</v>
+      </c>
+      <c r="S19">
+        <v>0.0001263359014886424</v>
+      </c>
+      <c r="T19">
+        <v>8.875965503658003E-05</v>
       </c>
     </row>
   </sheetData>
